--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slamf1-Slamf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slamf1-Slamf1.xlsx
@@ -519,16 +519,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1359423333333333</v>
+        <v>0.05840966666666667</v>
       </c>
       <c r="H2">
-        <v>0.407827</v>
+        <v>0.175229</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1359423333333333</v>
+        <v>0.05840966666666667</v>
       </c>
       <c r="N2">
-        <v>0.407827</v>
+        <v>0.175229</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01848031799211111</v>
+        <v>0.003411689160111112</v>
       </c>
       <c r="R2">
-        <v>0.166322861929</v>
+        <v>0.03070520244100001</v>
       </c>
       <c r="S2">
         <v>1</v>
